--- a/medicine/Médecine vétérinaire/Médecine_du_poisson/Médecine_du_poisson.xlsx
+++ b/medicine/Médecine vétérinaire/Médecine_du_poisson/Médecine_du_poisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_du_poisson</t>
+          <t>Médecine_du_poisson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médecine des poissons est l'étude et le traitement des maladies des poissons. Bien que certains praticiens travaillent principalement avec des poissons d'aquarium, ce domaine a également des applications importantes pour la gestion des pêches.
-La médecine des poissons est une spécialisation vétérinaire relativement récente ; les manuels vétérinaires en langue anglaise n'ont été publiés qu'au début des années 1990[1]. Les États-Unis n'ont pas de spécialisation officielle pour la médecine des poissons[2], il existe dans le monde plusieurs organisations professionnelles pour les vétérinaires intéressés par la médecine des poissons, telles que la World Aquatic Veterinary Medical Association et l'International Association of Aquatic Animal Medicine[2].
+La médecine des poissons est une spécialisation vétérinaire relativement récente ; les manuels vétérinaires en langue anglaise n'ont été publiés qu'au début des années 1990. Les États-Unis n'ont pas de spécialisation officielle pour la médecine des poissons, il existe dans le monde plusieurs organisations professionnelles pour les vétérinaires intéressés par la médecine des poissons, telles que la World Aquatic Veterinary Medical Association et l'International Association of Aquatic Animal Medicine.
 </t>
         </is>
       </c>
